--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-418075.5004077801</v>
+        <v>-419963.0819241819</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13746788.93856738</v>
+        <v>13746788.93856739</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>139.1130115060419</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>78.43452536694535</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>128.434042664916</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>267.6586343877908</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>127.7347682131308</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>127.990722067552</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>238.279395483276</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>321.1595027263045</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152.4625225902371</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>76.27978370493976</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>131.3545592324372</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>67.08991894886654</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>161.404652007317</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>14.68583996414666</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>163.8946345805323</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>230.506960182138</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>122.1703266469734</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>221.2306574774768</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>132.306990368304</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>39.94436864213646</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.325743315794571</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571501</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523582</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.934386695271</v>
@@ -3013,10 +3013,10 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337368</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378952</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
         <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117852</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2617.922297718278</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2364.160512356369</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2033.097625012799</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2033.097625012799</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1659.631866751719</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1269.492534775907</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4422,16 +4422,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>450.2509694134303</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>222.942782082032</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>222.942782082032</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>1941.818871543613</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>1568.353113282533</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.353113282533</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4662,13 +4662,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>562.6765899837193</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C7" t="n">
-        <v>562.6765899837193</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D7" t="n">
-        <v>562.6765899837193</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>562.6765899837193</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>562.6765899837193</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>562.6765899837193</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1481.844651382451</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1335.56455663271</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1335.56455663271</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>949.7763040344662</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1871.983983358263</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1871.983983358263</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1481.844651382451</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587809</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587809</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587809</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,22 +5121,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.741252113633</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1757.603879777666</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2037.143944996363</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.3840174432678</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>954.814612315055</v>
+        <v>754.8946022306071</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170377</v>
+        <v>526.9050513325898</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735075</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="14">
@@ -5258,31 +5258,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5373,10 +5373,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>484.0375086983735</v>
+        <v>260.2520934878788</v>
       </c>
       <c r="C16" t="n">
-        <v>315.1013257704666</v>
+        <v>260.2520934878788</v>
       </c>
       <c r="D16" t="n">
-        <v>164.9846863581308</v>
+        <v>260.2520934878788</v>
       </c>
       <c r="E16" t="n">
-        <v>164.9846863581308</v>
+        <v>260.2520934878788</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>260.2520934878788</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5434,22 +5434,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>986.002216560966</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>731.3177283550791</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>441.9005583181186</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>441.9005583181186</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286132</v>
+        <v>441.9005583181186</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5537,28 +5537,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,13 +5580,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>406.8543143225556</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C19" t="n">
-        <v>406.8543143225556</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>406.8543143225556</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>258.9412207401625</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>112.0512732422521</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>112.0512732422521</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1133.446124533523</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>1133.446124533523</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333286</v>
+        <v>1133.446124533523</v>
       </c>
       <c r="W19" t="n">
-        <v>809.2953582963255</v>
+        <v>844.0289544965622</v>
       </c>
       <c r="X19" t="n">
-        <v>809.2953582963255</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="Y19" t="n">
-        <v>588.5027791527954</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>844.0280401273989</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>611.1927268121082</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>611.1927268121082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>517.9294177607309</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C25" t="n">
-        <v>517.9294177607309</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D25" t="n">
-        <v>394.5250474102527</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102527</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617345005</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X25" t="n">
-        <v>920.3704617345005</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="Y25" t="n">
-        <v>699.5778825909705</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="26">
@@ -6209,43 +6209,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.2212943649437</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>678.2851114370368</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>528.1684720247011</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102527</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.210845262961</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1075.210845262961</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>847.2212943649436</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>847.2212943649436</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6464,10 +6464,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,34 +6476,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>583.6915747572941</v>
+        <v>659.8783819731811</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440245</v>
+        <v>546.7030643266449</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440245</v>
+        <v>543.3437276440243</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430021</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>360.0624171264623</v>
       </c>
       <c r="G31" t="n">
         <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.81182489927</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970146</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465075</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.495878540559</v>
+        <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.839573784969</v>
+        <v>957.9946671386967</v>
       </c>
       <c r="X31" t="n">
-        <v>874.6108881683226</v>
+        <v>785.7659815220501</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.5791743061632</v>
+        <v>785.7659815220501</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,7 +6719,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,7 +6892,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,22 +6962,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7072,49 +7072,49 @@
         <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,16 +7126,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010318</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,34 +7157,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
         <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,13 +7591,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>87.16935584025424</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>90.96703739368807</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>87.23009411965756</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>78.33112907406471</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>5.088916456060549</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,7 +23704,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>134.2279884033895</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>57.65292647785699</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>56.01603815445299</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>26.44514637123893</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>30.90698584635123</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>14.12697227826514</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>72.09919582793441</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965538</v>
+        <v>90.08647307386076</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1201171.012197578</v>
+        <v>1201171.012197579</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="C2" t="n">
         <v>246312.530959285</v>
@@ -26326,13 +26326,13 @@
         <v>234617.4358426252</v>
       </c>
       <c r="G2" t="n">
-        <v>234617.435842625</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="H2" t="n">
+        <v>234617.4358426252</v>
+      </c>
+      <c r="I2" t="n">
         <v>234617.4358426251</v>
-      </c>
-      <c r="I2" t="n">
-        <v>234617.4358426252</v>
       </c>
       <c r="J2" t="n">
         <v>234617.4358426251</v>
@@ -26341,7 +26341,7 @@
         <v>244093.2824071618</v>
       </c>
       <c r="L2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592851</v>
@@ -26350,7 +26350,7 @@
         <v>246312.5309592851</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592851</v>
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284552</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086697</v>
+        <v>10342.90680086675</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284552</v>
+        <v>44162.60530284565</v>
       </c>
     </row>
     <row r="4">
@@ -26427,19 +26427,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="J4" t="n">
         <v>22174.60758687072</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>40339.23010106722</v>
@@ -26448,16 +26448,16 @@
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819121</v>
       </c>
     </row>
     <row r="5">
@@ -26482,13 +26482,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-592147.2941051932</v>
+        <v>-592147.2941051935</v>
       </c>
       <c r="C6" t="n">
+        <v>-2179.414890648914</v>
+      </c>
+      <c r="D6" t="n">
         <v>-2179.414890648884</v>
       </c>
-      <c r="D6" t="n">
-        <v>-2179.414890648914</v>
-      </c>
       <c r="E6" t="n">
-        <v>-404704.5341698583</v>
+        <v>-404801.9932958304</v>
       </c>
       <c r="F6" t="n">
-        <v>120455.5023070379</v>
+        <v>120358.0431810657</v>
       </c>
       <c r="G6" t="n">
-        <v>120455.5023070375</v>
+        <v>120358.0431810658</v>
       </c>
       <c r="H6" t="n">
-        <v>120455.502307038</v>
+        <v>120358.0431810657</v>
       </c>
       <c r="I6" t="n">
-        <v>120455.5023070378</v>
+        <v>120358.0431810654</v>
       </c>
       <c r="J6" t="n">
-        <v>-55967.71688555511</v>
+        <v>-56065.17601152738</v>
       </c>
       <c r="K6" t="n">
-        <v>62963.23847302623</v>
+        <v>62944.74473509175</v>
       </c>
       <c r="L6" t="n">
-        <v>93661.12351020139</v>
+        <v>93661.12351020177</v>
       </c>
       <c r="M6" t="n">
         <v>-30796.98492276868</v>
       </c>
       <c r="N6" t="n">
-        <v>104004.0303110686</v>
+        <v>104004.0303110685</v>
       </c>
       <c r="O6" t="n">
         <v>104004.0303110685</v>
       </c>
       <c r="P6" t="n">
-        <v>59841.42500822303</v>
+        <v>59841.42500822287</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26750,28 +26750,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108371</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26972,13 +26972,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>242.8173585662199</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>138.0137949907124</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>83.71149628510287</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>21.87414536972216</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>81.5823343296222</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.9963324653382</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>39.25609903107585</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>90.35998513251079</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>126.9934962877316</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>85.71654301540696</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>14.84727966881377</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
@@ -28056,10 +28056,10 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>294.2627707717789</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35741,13 +35741,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36525,7 +36525,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799286</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941225</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043173</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,10 +37871,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
